--- a/01 Datasets/01_raw_data/dadosreg.xlsx
+++ b/01 Datasets/01_raw_data/dadosreg.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9E19D827208F3334DFC25C03750F690084AF5B84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82282044-166A-4844-91EA-7CB180544720}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-19320" yWindow="-4140" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>site</t>
   </si>
@@ -370,12 +382,15 @@
   </si>
   <si>
     <t>PSEab</t>
+  </si>
+  <si>
+    <t>n_trees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,16 +428,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -703,27 +716,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC1" sqref="AC1:AC73"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT1" sqref="AT1:AT73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="14.44140625" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,8 +872,11 @@
       <c r="AS1" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="AT1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -975,7 +991,7 @@
         <f t="shared" ref="AK2:AK8" si="0">AVERAGE(0,5)</f>
         <v>2.5</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <v>8</v>
       </c>
       <c r="AM2">
@@ -987,21 +1003,24 @@
       <c r="AO2">
         <v>37</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AQ2" s="3">
         <f>AP2/AL2</f>
         <v>0.138125</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" s="3">
         <v>0.11</v>
       </c>
       <c r="AS2">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1135,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3">
         <v>8</v>
       </c>
       <c r="AM3">
@@ -1128,21 +1147,24 @@
       <c r="AO3">
         <v>37</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP3" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="AQ3" s="3">
         <f t="shared" ref="AQ3:AQ66" si="3">AP3/AL3</f>
         <v>0.138125</v>
       </c>
-      <c r="AR3" s="5">
+      <c r="AR3" s="3">
         <v>0.11</v>
       </c>
       <c r="AS3">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT3">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1257,7 +1279,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <v>8</v>
       </c>
       <c r="AM4">
@@ -1269,21 +1291,24 @@
       <c r="AO4">
         <v>37</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AP4" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AQ4" s="3">
         <f t="shared" si="3"/>
         <v>0.138125</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AR4" s="3">
         <v>0.11</v>
       </c>
       <c r="AS4">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1423,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5">
         <v>8</v>
       </c>
       <c r="AM5">
@@ -1410,21 +1435,24 @@
       <c r="AO5">
         <v>37</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="3">
         <f t="shared" si="3"/>
         <v>0.138125</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="3">
         <v>0.11</v>
       </c>
       <c r="AS5">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT5">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1539,7 +1567,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <v>8</v>
       </c>
       <c r="AM6">
@@ -1551,21 +1579,24 @@
       <c r="AO6">
         <v>37</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AQ6" s="3">
         <f t="shared" si="3"/>
         <v>0.138125</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="AR6" s="3">
         <v>0.11</v>
       </c>
       <c r="AS6">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1711,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7">
         <v>8</v>
       </c>
       <c r="AM7">
@@ -1692,22 +1723,25 @@
       <c r="AO7">
         <v>37</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AQ7" s="3">
         <f t="shared" si="3"/>
         <v>0.138125</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AR7" s="3">
         <v>0.11</v>
       </c>
       <c r="AS7">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT7">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1821,7 +1855,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8">
         <v>8</v>
       </c>
       <c r="AM8">
@@ -1833,21 +1867,24 @@
       <c r="AO8">
         <v>37</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" s="3">
         <v>1.105</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AQ8" s="3">
         <f t="shared" si="3"/>
         <v>0.138125</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="AR8" s="3">
         <v>0.11</v>
       </c>
       <c r="AS8">
         <v>10.045454545454545</v>
       </c>
+      <c r="AT8">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +1998,7 @@
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL9">
         <v>4</v>
       </c>
       <c r="AM9">
@@ -1973,21 +2010,24 @@
       <c r="AO9">
         <v>98</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AP9" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AQ9" s="3">
         <f t="shared" si="3"/>
         <v>0.22875000000000001</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="AR9" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS9">
         <v>12.2</v>
       </c>
+      <c r="AT9">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2141,7 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10">
         <v>4</v>
       </c>
       <c r="AM10">
@@ -2113,21 +2153,24 @@
       <c r="AO10">
         <v>98</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AP10" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AQ10" s="3">
         <f t="shared" si="3"/>
         <v>0.22875000000000001</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AR10" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS10">
         <v>12.2</v>
       </c>
+      <c r="AT10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2284,7 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11">
         <v>4</v>
       </c>
       <c r="AM11">
@@ -2253,21 +2296,24 @@
       <c r="AO11">
         <v>98</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AP11" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AQ11" s="3">
         <f t="shared" si="3"/>
         <v>0.22875000000000001</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AR11" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS11">
         <v>12.2</v>
       </c>
+      <c r="AT11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2427,7 @@
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL12">
         <v>4</v>
       </c>
       <c r="AM12">
@@ -2393,21 +2439,24 @@
       <c r="AO12">
         <v>98</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AP12" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AQ12" s="3">
         <f t="shared" si="3"/>
         <v>0.22875000000000001</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AR12" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS12">
         <v>12.2</v>
       </c>
+      <c r="AT12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2521,7 +2570,7 @@
       <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AL13">
         <v>4</v>
       </c>
       <c r="AM13">
@@ -2533,21 +2582,24 @@
       <c r="AO13">
         <v>98</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AP13" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AQ13" s="3">
         <f t="shared" si="3"/>
         <v>0.22875000000000001</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AR13" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS13">
         <v>12.2</v>
       </c>
+      <c r="AT13">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2713,7 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AL14">
         <v>7</v>
       </c>
       <c r="AM14">
@@ -2673,21 +2725,24 @@
       <c r="AO14">
         <v>98</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AP14" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AQ14" s="3">
         <f t="shared" si="3"/>
         <v>0.12785714285714286</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AR14" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS14">
         <v>11.933333333333332</v>
       </c>
+      <c r="AT14">
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2801,7 +2856,7 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL15">
         <v>7</v>
       </c>
       <c r="AM15">
@@ -2813,21 +2868,24 @@
       <c r="AO15">
         <v>98</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AP15" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AQ15" s="3">
         <f t="shared" si="3"/>
         <v>0.12785714285714286</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AR15" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS15">
         <v>11.933333333333332</v>
       </c>
+      <c r="AT15">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +2999,7 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AL16">
         <v>7</v>
       </c>
       <c r="AM16">
@@ -2953,21 +3011,24 @@
       <c r="AO16">
         <v>98</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AP16" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="AQ16" s="3">
         <f t="shared" si="3"/>
         <v>0.12785714285714286</v>
       </c>
-      <c r="AR16" s="5">
+      <c r="AR16" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS16">
         <v>11.933333333333332</v>
       </c>
+      <c r="AT16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3142,7 @@
       <c r="AK17">
         <v>0</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AL17">
         <v>7</v>
       </c>
       <c r="AM17">
@@ -3093,21 +3154,24 @@
       <c r="AO17">
         <v>98</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AP17" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="AQ17" s="3">
         <f t="shared" si="3"/>
         <v>0.12785714285714286</v>
       </c>
-      <c r="AR17" s="5">
+      <c r="AR17" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS17">
         <v>11.933333333333332</v>
       </c>
+      <c r="AT17">
+        <v>21</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3221,7 +3285,7 @@
       <c r="AK18">
         <v>0</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AL18">
         <v>7</v>
       </c>
       <c r="AM18">
@@ -3233,21 +3297,24 @@
       <c r="AO18">
         <v>98</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AP18" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="AQ18" s="3">
         <f t="shared" si="3"/>
         <v>0.12785714285714286</v>
       </c>
-      <c r="AR18" s="5">
+      <c r="AR18" s="3">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AS18">
         <v>11.933333333333332</v>
       </c>
+      <c r="AT18">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3361,7 +3428,7 @@
       <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL19">
         <v>6</v>
       </c>
       <c r="AM19">
@@ -3373,21 +3440,24 @@
       <c r="AO19">
         <v>98</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AP19" s="3">
         <v>1.0350000000000001</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AQ19" s="3">
         <f t="shared" si="3"/>
         <v>0.17250000000000001</v>
       </c>
-      <c r="AR19" s="5">
+      <c r="AR19" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS19">
         <v>13.800000000000002</v>
       </c>
+      <c r="AT19">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3501,7 +3571,7 @@
       <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20">
         <v>6</v>
       </c>
       <c r="AM20">
@@ -3513,21 +3583,24 @@
       <c r="AO20">
         <v>98</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AP20" s="3">
         <v>1.0350000000000001</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AQ20" s="3">
         <f t="shared" si="3"/>
         <v>0.17250000000000001</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AR20" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS20">
         <v>13.800000000000002</v>
       </c>
+      <c r="AT20">
+        <v>9</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3641,7 +3714,7 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21">
         <v>6</v>
       </c>
       <c r="AM21">
@@ -3653,21 +3726,24 @@
       <c r="AO21">
         <v>98</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AP21" s="3">
         <v>1.0350000000000001</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="AQ21" s="3">
         <f t="shared" si="3"/>
         <v>0.17250000000000001</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AR21" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS21">
         <v>13.800000000000002</v>
       </c>
+      <c r="AT21">
+        <v>24</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3781,7 +3857,7 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22">
         <v>6</v>
       </c>
       <c r="AM22">
@@ -3793,21 +3869,24 @@
       <c r="AO22">
         <v>98</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AP22" s="3">
         <v>1.0350000000000001</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" s="3">
         <f t="shared" si="3"/>
         <v>0.17250000000000001</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AR22" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS22">
         <v>13.800000000000002</v>
       </c>
+      <c r="AT22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3921,7 +4000,7 @@
       <c r="AK23">
         <v>0</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AL23">
         <v>6</v>
       </c>
       <c r="AM23">
@@ -3933,21 +4012,24 @@
       <c r="AO23">
         <v>98</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AP23" s="3">
         <v>1.0350000000000001</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AQ23" s="3">
         <f t="shared" si="3"/>
         <v>0.17250000000000001</v>
       </c>
-      <c r="AR23" s="5">
+      <c r="AR23" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS23">
         <v>13.800000000000002</v>
       </c>
+      <c r="AT23">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4061,7 +4143,7 @@
       <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24">
         <v>7</v>
       </c>
       <c r="AM24">
@@ -4073,21 +4155,24 @@
       <c r="AO24">
         <v>98</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AP24" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AQ24" s="3">
         <f t="shared" si="3"/>
         <v>0.14071428571428571</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AR24" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS24">
         <v>13.133333333333333</v>
       </c>
+      <c r="AT24">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4201,7 +4286,7 @@
       <c r="AK25">
         <v>0</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25">
         <v>7</v>
       </c>
       <c r="AM25">
@@ -4213,21 +4298,24 @@
       <c r="AO25">
         <v>98</v>
       </c>
-      <c r="AP25" s="5">
+      <c r="AP25" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AQ25" s="5">
+      <c r="AQ25" s="3">
         <f t="shared" si="3"/>
         <v>0.14071428571428571</v>
       </c>
-      <c r="AR25" s="5">
+      <c r="AR25" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS25">
         <v>13.133333333333333</v>
       </c>
+      <c r="AT25">
+        <v>17</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4341,7 +4429,7 @@
       <c r="AK26">
         <v>0</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL26">
         <v>7</v>
       </c>
       <c r="AM26">
@@ -4353,21 +4441,24 @@
       <c r="AO26">
         <v>98</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AP26" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AQ26" s="3">
         <f t="shared" si="3"/>
         <v>0.14071428571428571</v>
       </c>
-      <c r="AR26" s="5">
+      <c r="AR26" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS26">
         <v>13.133333333333333</v>
       </c>
+      <c r="AT26">
+        <v>13</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4481,7 +4572,7 @@
       <c r="AK27">
         <v>0</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27">
         <v>7</v>
       </c>
       <c r="AM27">
@@ -4493,21 +4584,24 @@
       <c r="AO27">
         <v>98</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AP27" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AQ27" s="3">
         <f t="shared" si="3"/>
         <v>0.14071428571428571</v>
       </c>
-      <c r="AR27" s="5">
+      <c r="AR27" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS27">
         <v>13.133333333333333</v>
       </c>
+      <c r="AT27">
+        <v>15</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4621,7 +4715,7 @@
       <c r="AK28">
         <v>0</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AL28">
         <v>7</v>
       </c>
       <c r="AM28">
@@ -4633,21 +4727,24 @@
       <c r="AO28">
         <v>98</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AP28" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="AQ28" s="5">
+      <c r="AQ28" s="3">
         <f t="shared" si="3"/>
         <v>0.14071428571428571</v>
       </c>
-      <c r="AR28" s="5">
+      <c r="AR28" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AS28">
         <v>13.133333333333333</v>
       </c>
+      <c r="AT28">
+        <v>14</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4761,7 +4858,7 @@
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AL29">
         <v>5</v>
       </c>
       <c r="AM29">
@@ -4773,21 +4870,24 @@
       <c r="AO29">
         <v>98</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AP29" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="AQ29" s="3">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="AR29" s="5">
+      <c r="AR29" s="3">
         <v>0.09</v>
       </c>
       <c r="AS29">
         <v>12.444444444444446</v>
       </c>
+      <c r="AT29">
+        <v>13</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4901,7 +5001,7 @@
       <c r="AK30">
         <v>0</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30">
         <v>5</v>
       </c>
       <c r="AM30">
@@ -4913,21 +5013,24 @@
       <c r="AO30">
         <v>98</v>
       </c>
-      <c r="AP30" s="5">
+      <c r="AP30" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AQ30" s="5">
+      <c r="AQ30" s="3">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="AR30" s="5">
+      <c r="AR30" s="3">
         <v>0.09</v>
       </c>
       <c r="AS30">
         <v>12.444444444444446</v>
       </c>
+      <c r="AT30">
+        <v>18</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5041,7 +5144,7 @@
       <c r="AK31">
         <v>0</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AL31">
         <v>5</v>
       </c>
       <c r="AM31">
@@ -5053,21 +5156,24 @@
       <c r="AO31">
         <v>98</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AP31" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AQ31" s="3">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="AR31" s="5">
+      <c r="AR31" s="3">
         <v>0.09</v>
       </c>
       <c r="AS31">
         <v>12.444444444444446</v>
       </c>
+      <c r="AT31">
+        <v>15</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5181,7 +5287,7 @@
       <c r="AK32">
         <v>0</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AL32">
         <v>5</v>
       </c>
       <c r="AM32">
@@ -5193,21 +5299,24 @@
       <c r="AO32">
         <v>98</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AP32" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AQ32" s="3">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="AR32" s="5">
+      <c r="AR32" s="3">
         <v>0.09</v>
       </c>
       <c r="AS32">
         <v>12.444444444444446</v>
       </c>
+      <c r="AT32">
+        <v>19</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5321,7 +5430,7 @@
       <c r="AK33">
         <v>0</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AL33">
         <v>5</v>
       </c>
       <c r="AM33">
@@ -5333,21 +5442,24 @@
       <c r="AO33">
         <v>98</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AP33" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AQ33" s="5">
+      <c r="AQ33" s="3">
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="AR33" s="5">
+      <c r="AR33" s="3">
         <v>0.09</v>
       </c>
       <c r="AS33">
         <v>12.444444444444446</v>
       </c>
+      <c r="AT33">
+        <v>16</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5461,7 +5573,7 @@
       <c r="AK34">
         <v>30</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AL34">
         <v>6</v>
       </c>
       <c r="AM34">
@@ -5473,21 +5585,24 @@
       <c r="AO34">
         <v>95</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AP34" s="3">
         <v>1.98</v>
       </c>
-      <c r="AQ34" s="5">
+      <c r="AQ34" s="3">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="AR34" s="5">
+      <c r="AR34" s="3">
         <v>0.1</v>
       </c>
       <c r="AS34">
         <v>19.799999999999997</v>
       </c>
+      <c r="AT34">
+        <v>11</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5716,7 @@
       <c r="AK35">
         <v>30</v>
       </c>
-      <c r="AL35" s="2">
+      <c r="AL35">
         <v>6</v>
       </c>
       <c r="AM35">
@@ -5613,21 +5728,24 @@
       <c r="AO35">
         <v>95</v>
       </c>
-      <c r="AP35" s="5">
+      <c r="AP35" s="3">
         <v>1.98</v>
       </c>
-      <c r="AQ35" s="5">
+      <c r="AQ35" s="3">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="AR35" s="5">
+      <c r="AR35" s="3">
         <v>0.1</v>
       </c>
       <c r="AS35">
         <v>19.799999999999997</v>
       </c>
+      <c r="AT35">
+        <v>18</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5741,7 +5859,7 @@
       <c r="AK36">
         <v>30</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL36">
         <v>6</v>
       </c>
       <c r="AM36">
@@ -5753,21 +5871,24 @@
       <c r="AO36">
         <v>95</v>
       </c>
-      <c r="AP36" s="5">
+      <c r="AP36" s="3">
         <v>1.98</v>
       </c>
-      <c r="AQ36" s="5">
+      <c r="AQ36" s="3">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="AR36" s="5">
+      <c r="AR36" s="3">
         <v>0.1</v>
       </c>
       <c r="AS36">
         <v>19.799999999999997</v>
       </c>
+      <c r="AT36">
+        <v>21</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5881,7 +6002,7 @@
       <c r="AK37">
         <v>30</v>
       </c>
-      <c r="AL37" s="2">
+      <c r="AL37">
         <v>6</v>
       </c>
       <c r="AM37">
@@ -5893,21 +6014,24 @@
       <c r="AO37">
         <v>95</v>
       </c>
-      <c r="AP37" s="5">
+      <c r="AP37" s="3">
         <v>1.98</v>
       </c>
-      <c r="AQ37" s="5">
+      <c r="AQ37" s="3">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="AR37" s="5">
+      <c r="AR37" s="3">
         <v>0.1</v>
       </c>
       <c r="AS37">
         <v>19.799999999999997</v>
       </c>
+      <c r="AT37">
+        <v>16</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6021,7 +6145,7 @@
       <c r="AK38">
         <v>30</v>
       </c>
-      <c r="AL38" s="2">
+      <c r="AL38">
         <v>6</v>
       </c>
       <c r="AM38">
@@ -6033,21 +6157,24 @@
       <c r="AO38">
         <v>95</v>
       </c>
-      <c r="AP38" s="5">
+      <c r="AP38" s="3">
         <v>1.98</v>
       </c>
-      <c r="AQ38" s="5">
+      <c r="AQ38" s="3">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="AR38" s="5">
+      <c r="AR38" s="3">
         <v>0.1</v>
       </c>
       <c r="AS38">
         <v>19.799999999999997</v>
       </c>
+      <c r="AT38">
+        <v>17</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6161,7 +6288,7 @@
       <c r="AK39">
         <v>19</v>
       </c>
-      <c r="AL39" s="2">
+      <c r="AL39">
         <v>5</v>
       </c>
       <c r="AM39">
@@ -6173,21 +6300,24 @@
       <c r="AO39">
         <v>95</v>
       </c>
-      <c r="AP39" s="5">
+      <c r="AP39" s="3">
         <v>1.575</v>
       </c>
-      <c r="AQ39" s="5">
+      <c r="AQ39" s="3">
         <f t="shared" si="3"/>
         <v>0.315</v>
       </c>
-      <c r="AR39" s="5">
+      <c r="AR39" s="3">
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="AS39">
         <v>18.529411764705884</v>
       </c>
+      <c r="AT39">
+        <v>15</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6301,7 +6431,7 @@
       <c r="AK40">
         <v>19</v>
       </c>
-      <c r="AL40" s="2">
+      <c r="AL40">
         <v>5</v>
       </c>
       <c r="AM40">
@@ -6313,21 +6443,24 @@
       <c r="AO40">
         <v>95</v>
       </c>
-      <c r="AP40" s="5">
+      <c r="AP40" s="3">
         <v>1.575</v>
       </c>
-      <c r="AQ40" s="5">
+      <c r="AQ40" s="3">
         <f t="shared" si="3"/>
         <v>0.315</v>
       </c>
-      <c r="AR40" s="5">
+      <c r="AR40" s="3">
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="AS40">
         <v>18.529411764705884</v>
       </c>
+      <c r="AT40">
+        <v>18</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6441,7 +6574,7 @@
       <c r="AK41">
         <v>19</v>
       </c>
-      <c r="AL41" s="2">
+      <c r="AL41">
         <v>5</v>
       </c>
       <c r="AM41">
@@ -6453,21 +6586,24 @@
       <c r="AO41">
         <v>95</v>
       </c>
-      <c r="AP41" s="5">
+      <c r="AP41" s="3">
         <v>1.575</v>
       </c>
-      <c r="AQ41" s="5">
+      <c r="AQ41" s="3">
         <f t="shared" si="3"/>
         <v>0.315</v>
       </c>
-      <c r="AR41" s="5">
+      <c r="AR41" s="3">
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="AS41">
         <v>18.529411764705884</v>
       </c>
+      <c r="AT41">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6581,7 +6717,7 @@
       <c r="AK42">
         <v>19</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42">
         <v>5</v>
       </c>
       <c r="AM42">
@@ -6593,21 +6729,24 @@
       <c r="AO42">
         <v>95</v>
       </c>
-      <c r="AP42" s="5">
+      <c r="AP42" s="3">
         <v>1.575</v>
       </c>
-      <c r="AQ42" s="5">
+      <c r="AQ42" s="3">
         <f t="shared" si="3"/>
         <v>0.315</v>
       </c>
-      <c r="AR42" s="5">
+      <c r="AR42" s="3">
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="AS42">
         <v>18.529411764705884</v>
       </c>
+      <c r="AT42">
+        <v>19</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6721,7 +6860,7 @@
       <c r="AK43">
         <v>19</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL43">
         <v>5</v>
       </c>
       <c r="AM43">
@@ -6733,21 +6872,24 @@
       <c r="AO43">
         <v>95</v>
       </c>
-      <c r="AP43" s="5">
+      <c r="AP43" s="3">
         <v>1.575</v>
       </c>
-      <c r="AQ43" s="5">
+      <c r="AQ43" s="3">
         <f t="shared" si="3"/>
         <v>0.315</v>
       </c>
-      <c r="AR43" s="5">
+      <c r="AR43" s="3">
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="AS43">
         <v>18.529411764705884</v>
       </c>
+      <c r="AT43">
+        <v>15</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6858,10 +7000,10 @@
       <c r="AJ44">
         <v>459</v>
       </c>
-      <c r="AK44" s="3">
+      <c r="AK44" s="2">
         <v>33.5</v>
       </c>
-      <c r="AL44" s="2">
+      <c r="AL44">
         <v>6</v>
       </c>
       <c r="AM44">
@@ -6873,21 +7015,24 @@
       <c r="AO44">
         <v>95</v>
       </c>
-      <c r="AP44" s="5">
+      <c r="AP44" s="3">
         <v>1.145</v>
       </c>
-      <c r="AQ44" s="5">
+      <c r="AQ44" s="3">
         <f t="shared" si="3"/>
         <v>0.19083333333333333</v>
       </c>
-      <c r="AR44" s="5">
+      <c r="AR44" s="3">
         <v>0.11000000000000001</v>
       </c>
       <c r="AS44">
         <v>10.409090909090908</v>
       </c>
+      <c r="AT44">
+        <v>26</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6998,10 +7143,10 @@
       <c r="AJ45">
         <v>459</v>
       </c>
-      <c r="AK45" s="3">
+      <c r="AK45" s="2">
         <v>33.5</v>
       </c>
-      <c r="AL45" s="2">
+      <c r="AL45">
         <v>6</v>
       </c>
       <c r="AM45">
@@ -7013,21 +7158,24 @@
       <c r="AO45">
         <v>95</v>
       </c>
-      <c r="AP45" s="5">
+      <c r="AP45" s="3">
         <v>1.145</v>
       </c>
-      <c r="AQ45" s="5">
+      <c r="AQ45" s="3">
         <f t="shared" si="3"/>
         <v>0.19083333333333333</v>
       </c>
-      <c r="AR45" s="5">
+      <c r="AR45" s="3">
         <v>0.11000000000000001</v>
       </c>
       <c r="AS45">
         <v>10.409090909090908</v>
       </c>
+      <c r="AT45">
+        <v>21</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7138,10 +7286,10 @@
       <c r="AJ46">
         <v>459</v>
       </c>
-      <c r="AK46" s="3">
+      <c r="AK46" s="2">
         <v>33.5</v>
       </c>
-      <c r="AL46" s="2">
+      <c r="AL46">
         <v>6</v>
       </c>
       <c r="AM46">
@@ -7153,21 +7301,24 @@
       <c r="AO46">
         <v>95</v>
       </c>
-      <c r="AP46" s="5">
+      <c r="AP46" s="3">
         <v>1.145</v>
       </c>
-      <c r="AQ46" s="5">
+      <c r="AQ46" s="3">
         <f t="shared" si="3"/>
         <v>0.19083333333333333</v>
       </c>
-      <c r="AR46" s="5">
+      <c r="AR46" s="3">
         <v>0.11000000000000001</v>
       </c>
       <c r="AS46">
         <v>10.409090909090908</v>
       </c>
+      <c r="AT46">
+        <v>9</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7278,10 +7429,10 @@
       <c r="AJ47">
         <v>459</v>
       </c>
-      <c r="AK47" s="3">
+      <c r="AK47" s="2">
         <v>33.5</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AL47">
         <v>6</v>
       </c>
       <c r="AM47">
@@ -7293,21 +7444,24 @@
       <c r="AO47">
         <v>95</v>
       </c>
-      <c r="AP47" s="5">
+      <c r="AP47" s="3">
         <v>1.145</v>
       </c>
-      <c r="AQ47" s="5">
+      <c r="AQ47" s="3">
         <f t="shared" si="3"/>
         <v>0.19083333333333333</v>
       </c>
-      <c r="AR47" s="5">
+      <c r="AR47" s="3">
         <v>0.11000000000000001</v>
       </c>
       <c r="AS47">
         <v>10.409090909090908</v>
       </c>
+      <c r="AT47">
+        <v>8</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7418,10 +7572,10 @@
       <c r="AJ48">
         <v>459</v>
       </c>
-      <c r="AK48" s="3">
+      <c r="AK48" s="2">
         <v>33.5</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AL48">
         <v>6</v>
       </c>
       <c r="AM48">
@@ -7433,21 +7587,24 @@
       <c r="AO48">
         <v>95</v>
       </c>
-      <c r="AP48" s="5">
+      <c r="AP48" s="3">
         <v>1.145</v>
       </c>
-      <c r="AQ48" s="5">
+      <c r="AQ48" s="3">
         <f t="shared" si="3"/>
         <v>0.19083333333333333</v>
       </c>
-      <c r="AR48" s="5">
+      <c r="AR48" s="3">
         <v>0.11000000000000001</v>
       </c>
       <c r="AS48">
         <v>10.409090909090908</v>
       </c>
+      <c r="AT48">
+        <v>25</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7558,10 +7715,10 @@
       <c r="AJ49">
         <v>459</v>
       </c>
-      <c r="AK49" s="3">
+      <c r="AK49" s="2">
         <v>33.5</v>
       </c>
-      <c r="AL49" s="2">
+      <c r="AL49">
         <v>6</v>
       </c>
       <c r="AM49">
@@ -7573,21 +7730,24 @@
       <c r="AO49">
         <v>95</v>
       </c>
-      <c r="AP49" s="5">
+      <c r="AP49" s="3">
         <v>1.145</v>
       </c>
-      <c r="AQ49" s="5">
+      <c r="AQ49" s="3">
         <f t="shared" si="3"/>
         <v>0.19083333333333333</v>
       </c>
-      <c r="AR49" s="5">
+      <c r="AR49" s="3">
         <v>0.11000000000000001</v>
       </c>
       <c r="AS49">
         <v>10.409090909090908</v>
       </c>
+      <c r="AT49">
+        <v>16</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -7698,10 +7858,10 @@
       <c r="AJ50">
         <v>91</v>
       </c>
-      <c r="AK50" s="3">
+      <c r="AK50" s="2">
         <v>0</v>
       </c>
-      <c r="AL50" s="2">
+      <c r="AL50">
         <v>5</v>
       </c>
       <c r="AM50">
@@ -7713,21 +7873,24 @@
       <c r="AO50">
         <v>217</v>
       </c>
-      <c r="AP50" s="5">
+      <c r="AP50" s="3">
         <v>1.4449999999999998</v>
       </c>
-      <c r="AQ50" s="5">
+      <c r="AQ50" s="3">
         <f t="shared" si="3"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="AR50" s="5">
+      <c r="AR50" s="3">
         <v>0.11</v>
       </c>
       <c r="AS50">
         <v>13.136363636363635</v>
       </c>
+      <c r="AT50">
+        <v>18</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -7838,10 +8001,10 @@
       <c r="AJ51">
         <v>91</v>
       </c>
-      <c r="AK51" s="3">
+      <c r="AK51" s="2">
         <v>0</v>
       </c>
-      <c r="AL51" s="2">
+      <c r="AL51">
         <v>5</v>
       </c>
       <c r="AM51">
@@ -7853,21 +8016,24 @@
       <c r="AO51">
         <v>217</v>
       </c>
-      <c r="AP51" s="5">
+      <c r="AP51" s="3">
         <v>1.4449999999999998</v>
       </c>
-      <c r="AQ51" s="5">
+      <c r="AQ51" s="3">
         <f t="shared" si="3"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="AR51" s="5">
+      <c r="AR51" s="3">
         <v>0.11</v>
       </c>
       <c r="AS51">
         <v>13.136363636363635</v>
       </c>
+      <c r="AT51">
+        <v>21</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -7978,10 +8144,10 @@
       <c r="AJ52">
         <v>91</v>
       </c>
-      <c r="AK52" s="3">
+      <c r="AK52" s="2">
         <v>0</v>
       </c>
-      <c r="AL52" s="2">
+      <c r="AL52">
         <v>5</v>
       </c>
       <c r="AM52">
@@ -7993,21 +8159,24 @@
       <c r="AO52">
         <v>217</v>
       </c>
-      <c r="AP52" s="5">
+      <c r="AP52" s="3">
         <v>1.4449999999999998</v>
       </c>
-      <c r="AQ52" s="5">
+      <c r="AQ52" s="3">
         <f t="shared" si="3"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="AR52" s="5">
+      <c r="AR52" s="3">
         <v>0.11</v>
       </c>
       <c r="AS52">
         <v>13.136363636363635</v>
       </c>
+      <c r="AT52">
+        <v>13</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -8118,10 +8287,10 @@
       <c r="AJ53">
         <v>91</v>
       </c>
-      <c r="AK53" s="3">
+      <c r="AK53" s="2">
         <v>0</v>
       </c>
-      <c r="AL53" s="2">
+      <c r="AL53">
         <v>5</v>
       </c>
       <c r="AM53">
@@ -8133,21 +8302,24 @@
       <c r="AO53">
         <v>217</v>
       </c>
-      <c r="AP53" s="5">
+      <c r="AP53" s="3">
         <v>1.4449999999999998</v>
       </c>
-      <c r="AQ53" s="5">
+      <c r="AQ53" s="3">
         <f t="shared" si="3"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="AR53" s="5">
+      <c r="AR53" s="3">
         <v>0.11</v>
       </c>
       <c r="AS53">
         <v>13.136363636363635</v>
       </c>
+      <c r="AT53">
+        <v>18</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -8258,10 +8430,10 @@
       <c r="AJ54">
         <v>91</v>
       </c>
-      <c r="AK54" s="3">
+      <c r="AK54" s="2">
         <v>0</v>
       </c>
-      <c r="AL54" s="2">
+      <c r="AL54">
         <v>5</v>
       </c>
       <c r="AM54">
@@ -8273,21 +8445,24 @@
       <c r="AO54">
         <v>217</v>
       </c>
-      <c r="AP54" s="5">
+      <c r="AP54" s="3">
         <v>1.4449999999999998</v>
       </c>
-      <c r="AQ54" s="5">
+      <c r="AQ54" s="3">
         <f t="shared" si="3"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="AR54" s="5">
+      <c r="AR54" s="3">
         <v>0.11</v>
       </c>
       <c r="AS54">
         <v>13.136363636363635</v>
       </c>
+      <c r="AT54">
+        <v>18</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -8398,10 +8573,10 @@
       <c r="AJ55">
         <v>61</v>
       </c>
-      <c r="AK55" s="3">
+      <c r="AK55" s="2">
         <v>15</v>
       </c>
-      <c r="AL55" s="2">
+      <c r="AL55">
         <v>4</v>
       </c>
       <c r="AM55">
@@ -8413,21 +8588,24 @@
       <c r="AO55">
         <v>95</v>
       </c>
-      <c r="AP55" s="5">
+      <c r="AP55" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ55" s="5">
+      <c r="AQ55" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR55" s="5">
+      <c r="AR55" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS55">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT55">
+        <v>23</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -8538,10 +8716,10 @@
       <c r="AJ56">
         <v>61</v>
       </c>
-      <c r="AK56" s="3">
+      <c r="AK56" s="2">
         <v>15</v>
       </c>
-      <c r="AL56" s="2">
+      <c r="AL56">
         <v>4</v>
       </c>
       <c r="AM56">
@@ -8553,21 +8731,24 @@
       <c r="AO56">
         <v>95</v>
       </c>
-      <c r="AP56" s="5">
+      <c r="AP56" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ56" s="5">
+      <c r="AQ56" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR56" s="5">
+      <c r="AR56" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS56">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT56">
+        <v>17</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -8678,10 +8859,10 @@
       <c r="AJ57">
         <v>61</v>
       </c>
-      <c r="AK57" s="3">
+      <c r="AK57" s="2">
         <v>15</v>
       </c>
-      <c r="AL57" s="2">
+      <c r="AL57">
         <v>4</v>
       </c>
       <c r="AM57">
@@ -8693,21 +8874,24 @@
       <c r="AO57">
         <v>95</v>
       </c>
-      <c r="AP57" s="5">
+      <c r="AP57" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ57" s="5">
+      <c r="AQ57" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR57" s="5">
+      <c r="AR57" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS57">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT57">
+        <v>17</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -8818,10 +9002,10 @@
       <c r="AJ58">
         <v>61</v>
       </c>
-      <c r="AK58" s="3">
+      <c r="AK58" s="2">
         <v>15</v>
       </c>
-      <c r="AL58" s="2">
+      <c r="AL58">
         <v>4</v>
       </c>
       <c r="AM58">
@@ -8833,21 +9017,24 @@
       <c r="AO58">
         <v>95</v>
       </c>
-      <c r="AP58" s="5">
+      <c r="AP58" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ58" s="5">
+      <c r="AQ58" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR58" s="5">
+      <c r="AR58" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS58">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT58">
+        <v>16</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -8958,10 +9145,10 @@
       <c r="AJ59">
         <v>61</v>
       </c>
-      <c r="AK59" s="3">
+      <c r="AK59" s="2">
         <v>15</v>
       </c>
-      <c r="AL59" s="2">
+      <c r="AL59">
         <v>4</v>
       </c>
       <c r="AM59">
@@ -8973,21 +9160,24 @@
       <c r="AO59">
         <v>95</v>
       </c>
-      <c r="AP59" s="5">
+      <c r="AP59" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ59" s="5">
+      <c r="AQ59" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR59" s="5">
+      <c r="AR59" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS59">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT59">
+        <v>16</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -9098,10 +9288,10 @@
       <c r="AJ60">
         <v>61</v>
       </c>
-      <c r="AK60" s="3">
+      <c r="AK60" s="2">
         <v>15</v>
       </c>
-      <c r="AL60" s="2">
+      <c r="AL60">
         <v>4</v>
       </c>
       <c r="AM60">
@@ -9113,21 +9303,24 @@
       <c r="AO60">
         <v>95</v>
       </c>
-      <c r="AP60" s="5">
+      <c r="AP60" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ60" s="5">
+      <c r="AQ60" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR60" s="5">
+      <c r="AR60" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS60">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT60">
+        <v>19</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -9238,10 +9431,10 @@
       <c r="AJ61">
         <v>61</v>
       </c>
-      <c r="AK61" s="3">
+      <c r="AK61" s="2">
         <v>15</v>
       </c>
-      <c r="AL61" s="2">
+      <c r="AL61">
         <v>4</v>
       </c>
       <c r="AM61">
@@ -9253,21 +9446,24 @@
       <c r="AO61">
         <v>95</v>
       </c>
-      <c r="AP61" s="5">
+      <c r="AP61" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ61" s="5">
+      <c r="AQ61" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR61" s="5">
+      <c r="AR61" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS61">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT61">
+        <v>21</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -9378,10 +9574,10 @@
       <c r="AJ62">
         <v>61</v>
       </c>
-      <c r="AK62" s="3">
+      <c r="AK62" s="2">
         <v>15</v>
       </c>
-      <c r="AL62" s="2">
+      <c r="AL62">
         <v>4</v>
       </c>
       <c r="AM62">
@@ -9393,21 +9589,24 @@
       <c r="AO62">
         <v>95</v>
       </c>
-      <c r="AP62" s="5">
+      <c r="AP62" s="3">
         <v>1.5550000000000002</v>
       </c>
-      <c r="AQ62" s="5">
+      <c r="AQ62" s="3">
         <f t="shared" si="3"/>
         <v>0.38875000000000004</v>
       </c>
-      <c r="AR62" s="5">
+      <c r="AR62" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS62">
         <v>16.368421052631579</v>
       </c>
+      <c r="AT62">
+        <v>16</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -9518,10 +9717,10 @@
       <c r="AJ63">
         <v>444</v>
       </c>
-      <c r="AK63" s="3">
+      <c r="AK63" s="2">
         <v>27.5</v>
       </c>
-      <c r="AL63" s="2">
+      <c r="AL63">
         <v>5</v>
       </c>
       <c r="AM63">
@@ -9533,21 +9732,24 @@
       <c r="AO63">
         <v>76</v>
       </c>
-      <c r="AP63" s="5">
+      <c r="AP63" s="3">
         <v>1.8199999999999998</v>
       </c>
-      <c r="AQ63" s="5">
+      <c r="AQ63" s="3">
         <f t="shared" si="3"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AR63" s="5">
+      <c r="AR63" s="3">
         <v>0.17499999999999999</v>
       </c>
       <c r="AS63">
         <v>10.4</v>
       </c>
+      <c r="AT63">
+        <v>20</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -9658,10 +9860,10 @@
       <c r="AJ64">
         <v>444</v>
       </c>
-      <c r="AK64" s="3">
+      <c r="AK64" s="2">
         <v>27.5</v>
       </c>
-      <c r="AL64" s="2">
+      <c r="AL64">
         <v>5</v>
       </c>
       <c r="AM64">
@@ -9673,21 +9875,24 @@
       <c r="AO64">
         <v>76</v>
       </c>
-      <c r="AP64" s="5">
+      <c r="AP64" s="3">
         <v>1.8199999999999998</v>
       </c>
-      <c r="AQ64" s="5">
+      <c r="AQ64" s="3">
         <f t="shared" si="3"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AR64" s="5">
+      <c r="AR64" s="3">
         <v>0.17499999999999999</v>
       </c>
       <c r="AS64">
         <v>10.4</v>
       </c>
+      <c r="AT64">
+        <v>12</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -9798,10 +10003,10 @@
       <c r="AJ65">
         <v>444</v>
       </c>
-      <c r="AK65" s="3">
+      <c r="AK65" s="2">
         <v>27.5</v>
       </c>
-      <c r="AL65" s="2">
+      <c r="AL65">
         <v>5</v>
       </c>
       <c r="AM65">
@@ -9813,21 +10018,24 @@
       <c r="AO65">
         <v>76</v>
       </c>
-      <c r="AP65" s="5">
+      <c r="AP65" s="3">
         <v>1.8199999999999998</v>
       </c>
-      <c r="AQ65" s="5">
+      <c r="AQ65" s="3">
         <f t="shared" si="3"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AR65" s="5">
+      <c r="AR65" s="3">
         <v>0.17499999999999999</v>
       </c>
       <c r="AS65">
         <v>10.4</v>
       </c>
+      <c r="AT65">
+        <v>18</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -9938,10 +10146,10 @@
       <c r="AJ66">
         <v>444</v>
       </c>
-      <c r="AK66" s="3">
+      <c r="AK66" s="2">
         <v>27.5</v>
       </c>
-      <c r="AL66" s="2">
+      <c r="AL66">
         <v>5</v>
       </c>
       <c r="AM66">
@@ -9953,21 +10161,24 @@
       <c r="AO66">
         <v>76</v>
       </c>
-      <c r="AP66" s="5">
+      <c r="AP66" s="3">
         <v>1.8199999999999998</v>
       </c>
-      <c r="AQ66" s="5">
+      <c r="AQ66" s="3">
         <f t="shared" si="3"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AR66" s="5">
+      <c r="AR66" s="3">
         <v>0.17499999999999999</v>
       </c>
       <c r="AS66">
         <v>10.4</v>
       </c>
+      <c r="AT66">
+        <v>8</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10078,10 +10289,10 @@
       <c r="AJ67">
         <v>444</v>
       </c>
-      <c r="AK67" s="3">
+      <c r="AK67" s="2">
         <v>27.5</v>
       </c>
-      <c r="AL67" s="2">
+      <c r="AL67">
         <v>5</v>
       </c>
       <c r="AM67">
@@ -10093,21 +10304,24 @@
       <c r="AO67">
         <v>76</v>
       </c>
-      <c r="AP67" s="5">
+      <c r="AP67" s="3">
         <v>1.8199999999999998</v>
       </c>
-      <c r="AQ67" s="5">
+      <c r="AQ67" s="3">
         <f t="shared" ref="AQ67:AQ73" si="6">AP67/AL67</f>
         <v>0.36399999999999999</v>
       </c>
-      <c r="AR67" s="5">
+      <c r="AR67" s="3">
         <v>0.17499999999999999</v>
       </c>
       <c r="AS67">
         <v>10.4</v>
       </c>
+      <c r="AT67">
+        <v>10</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10218,10 +10432,10 @@
       <c r="AJ68">
         <v>430</v>
       </c>
-      <c r="AK68" s="3">
+      <c r="AK68" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AL68" s="2">
+      <c r="AL68">
         <v>5</v>
       </c>
       <c r="AM68">
@@ -10233,21 +10447,24 @@
       <c r="AO68">
         <v>76</v>
       </c>
-      <c r="AP68" s="5">
+      <c r="AP68" s="3">
         <v>1.4</v>
       </c>
-      <c r="AQ68" s="5">
+      <c r="AQ68" s="3">
         <f t="shared" si="6"/>
         <v>0.27999999999999997</v>
       </c>
-      <c r="AR68" s="5">
+      <c r="AR68" s="3">
         <v>0.15000000000000002</v>
       </c>
       <c r="AS68">
         <v>9.3333333333333321</v>
       </c>
+      <c r="AT68">
+        <v>36</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10361,7 +10578,7 @@
       <c r="AK69">
         <v>35</v>
       </c>
-      <c r="AL69" s="2">
+      <c r="AL69">
         <v>5</v>
       </c>
       <c r="AM69">
@@ -10373,21 +10590,24 @@
       <c r="AO69">
         <v>42</v>
       </c>
-      <c r="AP69" s="5">
+      <c r="AP69" s="3">
         <v>1.155</v>
       </c>
-      <c r="AQ69" s="5">
+      <c r="AQ69" s="3">
         <f t="shared" si="6"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="AR69" s="5">
+      <c r="AR69" s="3">
         <v>0.09</v>
       </c>
       <c r="AS69">
         <v>12.833333333333334</v>
       </c>
+      <c r="AT69">
+        <v>16</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10501,7 +10721,7 @@
       <c r="AK70">
         <v>35</v>
       </c>
-      <c r="AL70" s="2">
+      <c r="AL70">
         <v>5</v>
       </c>
       <c r="AM70">
@@ -10513,21 +10733,24 @@
       <c r="AO70">
         <v>42</v>
       </c>
-      <c r="AP70" s="5">
+      <c r="AP70" s="3">
         <v>1.155</v>
       </c>
-      <c r="AQ70" s="5">
+      <c r="AQ70" s="3">
         <f t="shared" si="6"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="AR70" s="5">
+      <c r="AR70" s="3">
         <v>0.09</v>
       </c>
       <c r="AS70">
         <v>12.833333333333334</v>
       </c>
+      <c r="AT70">
+        <v>15</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10641,7 +10864,7 @@
       <c r="AK71">
         <v>35</v>
       </c>
-      <c r="AL71" s="2">
+      <c r="AL71">
         <v>5</v>
       </c>
       <c r="AM71">
@@ -10653,21 +10876,24 @@
       <c r="AO71">
         <v>42</v>
       </c>
-      <c r="AP71" s="5">
+      <c r="AP71" s="3">
         <v>1.155</v>
       </c>
-      <c r="AQ71" s="5">
+      <c r="AQ71" s="3">
         <f t="shared" si="6"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="AR71" s="5">
+      <c r="AR71" s="3">
         <v>0.09</v>
       </c>
       <c r="AS71">
         <v>12.833333333333334</v>
       </c>
+      <c r="AT71">
+        <v>35</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10781,7 +11007,7 @@
       <c r="AK72">
         <v>35</v>
       </c>
-      <c r="AL72" s="2">
+      <c r="AL72">
         <v>5</v>
       </c>
       <c r="AM72">
@@ -10793,21 +11019,24 @@
       <c r="AO72">
         <v>42</v>
       </c>
-      <c r="AP72" s="5">
+      <c r="AP72" s="3">
         <v>1.155</v>
       </c>
-      <c r="AQ72" s="5">
+      <c r="AQ72" s="3">
         <f t="shared" si="6"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="AR72" s="5">
+      <c r="AR72" s="3">
         <v>0.09</v>
       </c>
       <c r="AS72">
         <v>12.833333333333334</v>
       </c>
+      <c r="AT72">
+        <v>12</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10921,7 +11150,7 @@
       <c r="AK73">
         <v>35</v>
       </c>
-      <c r="AL73" s="2">
+      <c r="AL73">
         <v>5</v>
       </c>
       <c r="AM73">
@@ -10933,18 +11162,21 @@
       <c r="AO73">
         <v>42</v>
       </c>
-      <c r="AP73" s="5">
+      <c r="AP73" s="3">
         <v>1.155</v>
       </c>
-      <c r="AQ73" s="5">
+      <c r="AQ73" s="3">
         <f t="shared" si="6"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="AR73" s="5">
+      <c r="AR73" s="3">
         <v>0.09</v>
       </c>
       <c r="AS73">
         <v>12.833333333333334</v>
+      </c>
+      <c r="AT73">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
